--- a/level-3/codeforces/gym-contests-1/codeforces-gym-contests-1.xlsx
+++ b/level-3/codeforces/gym-contests-1/codeforces-gym-contests-1.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC64ABD-3DE6-496E-A49C-2F1BDAF5A81E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F18FE7F-8571-411A-9AEB-344F651F1EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="level 3 gym contests" sheetId="1" r:id="rId1"/>
+    <sheet name="codeforces gym contests 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -797,7 +808,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,35 +817,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="1"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -851,28 +839,30 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="14"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <u/>
-      <sz val="16"/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -966,74 +956,54 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1041,182 +1011,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1507,2464 +1302,2317 @@
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="126.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="8" width="15.109375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="126.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="9" customWidth="1"/>
+    <col min="4" max="8" width="15.109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="4">
-        <f>COUNTA(B3:B812)</f>
+    <row r="2" spans="1:9" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="1">
+        <f>COUNTA(B3:B250)</f>
         <v>125</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="11" t="e">
-        <f t="shared" ref="D2:I2" si="0">AVERAGE(D23:D117)</f>
+      <c r="C2" s="16"/>
+      <c r="D2" s="3" t="e">
+        <f t="shared" ref="D2:I2" si="0">AVERAGE(D3:D250)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E2" s="11" t="e">
+      <c r="E2" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F2" s="11" t="e">
+      <c r="F2" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G2" s="11" t="e">
+      <c r="G2" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H2" s="11" t="e">
+      <c r="H2" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="17">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
         <f t="shared" ref="I3:I23" si="1">SUM(D3:H3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="17">
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="17">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="17">
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="17">
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="17">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="17">
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="17">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="17">
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="17">
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="17">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="17">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="17">
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="17">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="17">
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="17">
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="17">
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="17">
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="17">
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="17">
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="17">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="12">
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
         <f t="shared" ref="I24:I33" si="2">SUM(D24:H24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="12">
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="12">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="12">
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="12">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="12">
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="12">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="12">
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="12">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="12">
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="12">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="8">
         <f t="shared" ref="I34:I41" si="3">SUM(D34:H34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="12">
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="12">
+      <c r="C36" s="8"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="12">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="12">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="12">
+      <c r="C39" s="8"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="12">
+      <c r="C40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="12">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="12">
+      <c r="C42" s="8"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="8">
         <f t="shared" ref="I42:I65" si="4">SUM(D42:H42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="12">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="12">
+      <c r="C44" s="8"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="12">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="12">
+      <c r="C46" s="8"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="12">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="12">
+      <c r="C48" s="8"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="12">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="12">
+      <c r="C50" s="8"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="12">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="12">
+      <c r="C52" s="8"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="12">
+      <c r="C53" s="8"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="12">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
+    <row r="55" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="12">
+      <c r="C55" s="8"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
+    <row r="56" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="12">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
+    <row r="57" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="12">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="12">
+      <c r="C58" s="8"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="12">
+      <c r="C59" s="8"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="12">
+      <c r="C60" s="8"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
+    <row r="61" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="12">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
+    <row r="62" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="12">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="12">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
+    <row r="64" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="12">
+      <c r="C64" s="8"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
+    <row r="65" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="12">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="12">
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="8">
         <f t="shared" ref="I66:I79" si="5">SUM(D66:H66)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
+    <row r="67" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="12">
+      <c r="C67" s="8"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
+    <row r="68" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="12">
+      <c r="C68" s="8"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="12">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="12">
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="12">
+      <c r="C71" s="8"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A72" s="8" t="s">
+    <row r="72" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="12">
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="8">
         <f>SUM(D72:H72)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A73" s="9" t="s">
+    <row r="73" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="12">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="8">
         <f>SUM(D73:H73)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A74" s="8" t="s">
+    <row r="74" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="12">
+      <c r="C74" s="8"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
+    <row r="75" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="12">
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="s">
+    <row r="76" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="12">
+      <c r="C76" s="8"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A77" s="8" t="s">
+    <row r="77" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="12">
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
+    <row r="78" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="12">
+      <c r="C78" s="8"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
+    <row r="79" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="12">
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
+    <row r="80" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="12">
-        <f t="shared" ref="I80:I132" si="6">SUM(D80:H80)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="s">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="8">
+        <f t="shared" ref="I80:I126" si="6">SUM(D80:H80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A82" s="8" t="s">
+      <c r="C81" s="8"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="s">
+      <c r="C82" s="8"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="s">
+      <c r="C84" s="8"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A86" s="9" t="s">
+      <c r="C85" s="8"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="s">
+      <c r="C86" s="8"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A88" s="8" t="s">
+      <c r="C87" s="8"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="s">
+      <c r="C88" s="8"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A90" s="8" t="s">
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="s">
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="8" t="s">
+      <c r="C92" s="8"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="9" t="s">
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="9" t="s">
+      <c r="C94" s="8"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="8" t="s">
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C96" s="12"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="8" t="s">
+      <c r="C96" s="8"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="8" t="s">
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C98" s="12"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="8" t="s">
+      <c r="C98" s="8"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="8" t="s">
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C100" s="12"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="s">
+      <c r="C100" s="8"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="8" t="s">
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="s">
+      <c r="C102" s="8"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="8" t="s">
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C104" s="12"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="8" t="s">
+      <c r="C104" s="8"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="8" t="s">
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C106" s="12"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="8" t="s">
+      <c r="C106" s="8"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="8" t="s">
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C108" s="12"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="8" t="s">
+      <c r="C108" s="8"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C109" s="13"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="8" t="s">
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C110" s="12"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="12">
+      <c r="C110" s="8"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="8">
         <f>SUM(D110:H110)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="8" t="s">
+    <row r="111" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C111" s="13"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="12">
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="8">
         <f>SUM(D111:H111)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="8" t="s">
+    <row r="112" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C112" s="12"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="8" t="s">
+      <c r="C112" s="8"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C113" s="13"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="8" t="s">
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C114" s="12"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="8" t="s">
+      <c r="C114" s="8"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C115" s="13"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="8" t="s">
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="8" t="s">
+      <c r="C116" s="9"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="9" t="s">
+      <c r="C117" s="9"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="9" t="s">
+      <c r="C118" s="9"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" s="5" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="9" t="s">
+      <c r="C119" s="9"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="2" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="12">
+      <c r="C120" s="9"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="I121" s="12">
+      <c r="I121" s="8">
         <f>SUM(D121:H121)</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I122" s="12">
+      <c r="I122" s="8">
         <f>SUM(D122:H122)</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="I123" s="12">
+      <c r="I123" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="I124" s="12">
+      <c r="I124" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="I125" s="12">
+      <c r="I125" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="I126" s="12">
+      <c r="I126" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I127" s="12">
+      <c r="I127" s="8">
         <f>SUM(D127:H127)</f>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="9"/>
-      <c r="B128" s="7"/>
-      <c r="I128" s="12">
-        <f>SUM(D128:H128)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="9"/>
-      <c r="B129" s="7"/>
-      <c r="I129" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="9"/>
-      <c r="B130" s="7"/>
-      <c r="I130" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="9"/>
-      <c r="B131" s="7"/>
-      <c r="I131" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="9"/>
-      <c r="B132" s="7"/>
-      <c r="I132" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B133" s="19"/>
-      <c r="I133" s="12"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B134" s="19"/>
-      <c r="I134" s="12"/>
+      <c r="B128" s="10"/>
+      <c r="I128" s="8"/>
+    </row>
+    <row r="129" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="10"/>
+      <c r="I129" s="8"/>
+    </row>
+    <row r="130" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="10"/>
+      <c r="I130" s="8"/>
+    </row>
+    <row r="131" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="10"/>
+      <c r="I131" s="8"/>
+    </row>
+    <row r="132" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="10"/>
+      <c r="I132" s="8"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I133" s="8"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I134" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A33:A41 B25:B41 A61:A64 A84:A90 A65:B65 A23:B24 A18:B18 A42:B59 A66:A82 A91:B105 A110:A120 B60:B117">
-    <cfRule type="cellIs" dxfId="25" priority="167" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A133:A1048576">
-    <cfRule type="cellIs" dxfId="24" priority="155" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="23" priority="114" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B32">
-    <cfRule type="cellIs" dxfId="22" priority="110" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83">
-    <cfRule type="cellIs" dxfId="21" priority="109" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="cellIs" dxfId="20" priority="106" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="19" priority="103" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B111">
-    <cfRule type="cellIs" dxfId="18" priority="94" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106:A109">
-    <cfRule type="cellIs" dxfId="17" priority="100" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B106">
-    <cfRule type="cellIs" dxfId="16" priority="99" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B107">
-    <cfRule type="cellIs" dxfId="15" priority="98" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B108">
-    <cfRule type="cellIs" dxfId="14" priority="97" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B109">
-    <cfRule type="cellIs" dxfId="13" priority="96" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B110">
-    <cfRule type="cellIs" dxfId="12" priority="95" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B112">
-    <cfRule type="cellIs" dxfId="11" priority="93" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B113">
-    <cfRule type="cellIs" dxfId="10" priority="92" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B114">
-    <cfRule type="cellIs" dxfId="9" priority="91" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B115">
-    <cfRule type="cellIs" dxfId="8" priority="90" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B116">
-    <cfRule type="cellIs" dxfId="7" priority="89" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117">
-    <cfRule type="cellIs" dxfId="6" priority="88" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B17 A21:B22">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:B20">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A121:A132">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B118:B132">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B118:B132">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="155" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
